--- a/ACG_Common_Workbook.xlsx
+++ b/ACG_Common_Workbook.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Pycharm_Projects\PycharmProjects\pythonProject\Cloud_Automation_Pytest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jenkines\L4_Automation_Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB8F86-7CD0-43F6-BCD7-EF80AA952FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A430BEE-D521-43F0-AA30-AC36912B7085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Login_cred_Tenant" sheetId="1" r:id="rId1"/>
     <sheet name="URL_Login_cred_ACG" sheetId="2" r:id="rId2"/>
     <sheet name="Rights" sheetId="3" r:id="rId3"/>
     <sheet name="Rights_test_case" sheetId="4" r:id="rId4"/>
-    <sheet name="Users" sheetId="5" r:id="rId5"/>
-    <sheet name="Password_Complex" sheetId="6" r:id="rId6"/>
+    <sheet name="Login_user" sheetId="7" r:id="rId5"/>
+    <sheet name="Users" sheetId="5" r:id="rId6"/>
+    <sheet name="Password_Complex" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="167">
   <si>
     <t>URL</t>
   </si>
@@ -485,13 +486,69 @@
   </si>
   <si>
     <t>Validate a password with lower case, upper char and special</t>
+  </si>
+  <si>
+    <t>Testcases</t>
+  </si>
+  <si>
+    <t>Cloud_message</t>
+  </si>
+  <si>
+    <t>Actual_message</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>To Login with empty username and password</t>
+  </si>
+  <si>
+    <t>Error
+Fields missing</t>
+  </si>
+  <si>
+    <t>ACGISUPERADMIN</t>
+  </si>
+  <si>
+    <t>To Login with correct username and empty password</t>
+  </si>
+  <si>
+    <t>Hanson</t>
+  </si>
+  <si>
+    <t>To Login with unregistered username and password</t>
+  </si>
+  <si>
+    <t>Error
+Error: User with given creds not available</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>To Login with empty username and valid password</t>
+  </si>
+  <si>
+    <t>To Login with correct username and password</t>
+  </si>
+  <si>
+    <t>No error message found</t>
+  </si>
+  <si>
+    <t>mukeshk.tiwari@acg-world.com</t>
+  </si>
+  <si>
+    <t>Acgi@12345</t>
+  </si>
+  <si>
+    <t>To Login with correct email and password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +584,14 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +601,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -596,12 +661,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -651,7 +727,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1011,7 +1099,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,10 +1213,10 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
@@ -1566,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1691,6 +1779,146 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911C9244-0D35-4930-AA20-DF5A38CF8619}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="40.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="29">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{60BA7868-DAF3-4812-8F61-6C39BD036E32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -2023,7 +2251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
